--- a/biology/Zoologie/Gymnothorax/Gymnothorax.xlsx
+++ b/biology/Zoologie/Gymnothorax/Gymnothorax.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gymnothorax est un genre de murènes de la famille des Muraenidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Description du genre</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le genre Gymnothorax a été créé par Marcus Élieser Bloch[1] mettant ainsi au premier plan un caractère plutôt commun des murènes, à savoir l'absence d'écailles sur le corps. Le caractère particulier des dents de ce genre concernerait en revanche plutôt la denticulation des arêtes.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le genre Gymnothorax a été créé par Marcus Élieser Bloch mettant ainsi au premier plan un caractère plutôt commun des murènes, à savoir l'absence d'écailles sur le corps. Le caractère particulier des dents de ce genre concernerait en revanche plutôt la denticulation des arêtes.
 narine antérieure tubulaire, à l’extrémité du museau. D'autres caractères sont nécessaires.
 narine postérieure en pore simple ou cernée d’un rebord bas, située au voisinage de l’œil.
 dents prémaxillaires, maxillaires et mandibulaires pointues, triangulaires, à arêtes serrulées, ce caractère présent également sur les dents de remplacement, couchées sous la peau.</t>
@@ -544,7 +558,9 @@
           <t>Distribution géographique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elles se trouvent dans les eaux tempérées chaudes et tropicales de tous les océans du globe.
 </t>
@@ -575,9 +591,11 @@
           <t>Anecdote littéraire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon, Simon Barthélemy Joseph Noël, « Forster rapporte que les insulaires d'Huaheine et d'Otaheite prenoient le gymnothorax échidné au moyen d'un lacet ajusté au bout d'une perche : certainement le meilleur pêcheur européen hésiteroit d'employer ce procédé pour s'emparer des  poissons les plus faciles à saisir »[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon, Simon Barthélemy Joseph Noël, « Forster rapporte que les insulaires d'Huaheine et d'Otaheite prenoient le gymnothorax échidné au moyen d'un lacet ajusté au bout d'une perche : certainement le meilleur pêcheur européen hésiteroit d'employer ce procédé pour s'emparer des  poissons les plus faciles à saisir ».
 </t>
         </is>
       </c>
@@ -606,9 +624,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (27 février 2014)[3], les 124 espèces reconnues du genre sont :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (27 février 2014), les 124 espèces reconnues du genre sont :
 Gymnothorax afer (en) Bloch, 1795
 Gymnothorax albimarginatus (Temminck &amp; Schlegel, 1846)
 Gymnothorax angusticauda (en) (Weber &amp; de Beaufort, 1916)
@@ -735,8 +755,8 @@
 Gymnothorax ypsilon Hatooka &amp; Randall, 1992
 Gymnothorax zonipectis Seale, 1906
 En 2017, deux nouvelles espèces ont été décrites (Zootaxa) :
-Gymnothorax pseudotile Mohapatra, Smith, Ray, Mishra &amp; Mohanty[4]
-Gymnothorax visakhaensis Mohapatra, Smith, Mohanty, Mishra &amp; Tudu[5]
+Gymnothorax pseudotile Mohapatra, Smith, Ray, Mishra &amp; Mohanty
+Gymnothorax visakhaensis Mohapatra, Smith, Mohanty, Mishra &amp; Tudu
 			Gymnothorax afer
 			Gymnothorax albimarginatus
 			Gymnothorax bacalladoi
